--- a/Excel/064_Grafico+Semaforo.xlsx
+++ b/Excel/064_Grafico+Semaforo.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clevison.santos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9425C04-3EDE-4CE1-A5D6-9C54260122EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3335605-B34B-4F3A-A8A2-E6F157643EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{A846E3EA-28DF-4349-8782-E6C4BBD3A856}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{A846E3EA-28DF-4349-8782-E6C4BBD3A856}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Dados" sheetId="1" r:id="rId1"/>
     <sheet name="Professor" sheetId="2" r:id="rId2"/>
     <sheet name="Aluno" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Vermelho</t>
   </si>
@@ -61,12 +52,21 @@
   <si>
     <t>Camisa Masculina</t>
   </si>
+  <si>
+    <t xml:space="preserve">Estoque </t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>Crítico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +109,26 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +141,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,11 +197,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,8 +231,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -206,8 +243,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,7 +259,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +629,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Dados!$D$10" spid="_x0000_s2070"/>
+                  <a14:cameraTool cellRange="Dados!$D$10" spid="_x0000_s2082"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -638,7 +694,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Dados!$E$10" spid="_x0000_s2071"/>
+                  <a14:cameraTool cellRange="Dados!$E$10" spid="_x0000_s2083"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -703,7 +759,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Dados!$F$10" spid="_x0000_s2072"/>
+                  <a14:cameraTool cellRange="Dados!$F$10" spid="_x0000_s2084"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -795,6 +851,402 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Elipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36126A81-0F71-E766-49D0-FFC56429ECE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402285" y="457200"/>
+          <a:ext cx="353785" cy="337457"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Elipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABF4990-3D5C-491E-A1C4-ABE6815AEA1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402286" y="914400"/>
+          <a:ext cx="353785" cy="337457"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527957</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Elipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F95E0B7-598E-4D10-AC34-D84386B1D79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7407728" y="1360714"/>
+          <a:ext cx="353785" cy="337457"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>242564</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>76201</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>535776</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>157843</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Imagem 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DE34CC-6E8A-4C5C-6352-16893F451E44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$C$58" spid="_x0000_s3092"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6469193" y="261258"/>
+              <a:ext cx="2252640" cy="713014"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>634178</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>65315</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>119744</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>89381</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Imagem 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CAF5F9-7FED-AA77-28B0-40C703C43BAE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$D$58" spid="_x0000_s3093"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6860807" y="696686"/>
+              <a:ext cx="1444994" cy="764295"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>631371</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>130628</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>122890</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>157843</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Imagem 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46A3CEE-D1B3-AE15-FF90-FBDF8B9E9A9A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$E$58" spid="_x0000_s3094"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6858000" y="1132114"/>
+              <a:ext cx="1450947" cy="767443"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1098,39 +1550,39 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" customWidth="1"/>
+    <col min="3" max="3" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="20.6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="20.6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1143,28 +1595,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="44" x14ac:dyDescent="0.8">
-      <c r="C10" s="18">
-        <f>Professor!$C$3</f>
-        <v>300</v>
-      </c>
-      <c r="D10" s="15" t="str">
+    <row r="10" spans="1:6" ht="44.15" x14ac:dyDescent="0.95">
+      <c r="C10" s="16">
+        <f>Aluno!C3</f>
+        <v>500</v>
+      </c>
+      <c r="D10" s="13" t="str">
         <f>IF(C10&lt;=C3,"l","")</f>
         <v/>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="14" t="str">
         <f>IF(AND(C10&gt;C3,C10&lt;=C4),"l","")</f>
         <v/>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="15" t="str">
         <f>IF(C10&gt;C4,"l","")</f>
         <v>l</v>
       </c>
@@ -1180,27 +1632,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90AF9B3-BEA4-4768-9C65-9D7CFC0F21F3}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.69140625" customWidth="1"/>
+    <col min="3" max="3" width="15.15234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:3" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>300</v>
       </c>
     </row>
@@ -1212,37 +1666,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F486CC99-46E0-44A3-BB31-0462C912C3E9}">
-  <dimension ref="B2:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F486CC99-46E0-44A3-BB31-0462C912C3E9}">
+  <dimension ref="B2:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.69140625" customWidth="1"/>
+    <col min="3" max="3" width="15.15234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:3" ht="20.6" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J40" s="21"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="B58" s="25">
+        <f>C3</f>
+        <v>500</v>
+      </c>
+      <c r="C58" s="22" t="str">
+        <f>IF(B58&lt;=C64,"l","")</f>
+        <v/>
+      </c>
+      <c r="D58" s="23" t="str">
+        <f>IF(AND(B58&gt;C64,B58&lt;=C63),"l","")</f>
+        <v/>
+      </c>
+      <c r="E58" s="24" t="str">
+        <f>IF(B58&gt;C63,"l","")</f>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C62" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B63" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="20">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>